--- a/data/georgia_census/imereti/tyibuli/healthcare_staff.xlsx
+++ b/data/georgia_census/imereti/tyibuli/healthcare_staff.xlsx
@@ -1373,13 +1373,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D93FCF8-61E5-40B0-A13A-AE69F8D403ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0111F90B-2934-4CDA-A4BD-204FF303A6D8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2836CBB0-2C3C-4C41-B8D6-8EE6566F0D31}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4019611-1D34-4220-AC5A-425EA3ABCB64}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7E6CD01-AEDE-4195-A7A9-C3552D1D8668}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7665CD44-F942-48F7-AF71-7B62C5B84EDF}"/>
 </file>